--- a/resultados_predicciones_unico_modelo.xlsx
+++ b/resultados_predicciones_unico_modelo.xlsx
@@ -486,22 +486,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.95</v>
+        <v>17.29</v>
       </c>
       <c r="C2" t="n">
-        <v>14.95</v>
+        <v>17.29</v>
       </c>
       <c r="D2" t="n">
-        <v>14.95</v>
+        <v>17.29</v>
       </c>
       <c r="E2" t="n">
-        <v>14.95</v>
+        <v>17.29</v>
       </c>
       <c r="F2" t="n">
-        <v>14.95</v>
+        <v>17.29</v>
       </c>
       <c r="G2" t="n">
-        <v>14.95</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="3">
@@ -511,22 +511,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="C3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="D3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="E3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="F3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="G3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
     </row>
   </sheetData>
